--- a/Featureban_Statistics.xlsx
+++ b/Featureban_Statistics.xlsx
@@ -152,23 +152,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$I$2:$M$2</c:f>
+              <c:f>Лист1!$H$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.6989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6.3470000000000004</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5.6369999999999996</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.577</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5.5650000000000004</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.7930000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -531,24 +534,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80355712"/>
-        <c:axId val="80357632"/>
+        <c:axId val="80604544"/>
+        <c:axId val="80884864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80355712"/>
+        <c:axId val="80604544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80357632"/>
+        <c:crossAx val="80884864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80357632"/>
+        <c:axId val="80884864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,7 +559,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80355712"/>
+        <c:crossAx val="80604544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -569,7 +572,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -898,7 +901,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
